--- a/omni/COLUMNS.xlsx
+++ b/omni/COLUMNS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTOS\OMNI_CLIENTE\DATABASES AND TAPLAS TPV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kayser.dev\omni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF99F5E-221A-48E7-80E9-0AD94F23A785}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ED13DD-408A-499A-9F4B-B4BA6615C1D9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DOCUMENTS_LINES" sheetId="1" r:id="rId1"/>
@@ -4139,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219A129F-1565-47DF-A51A-BE0B5EC5D16B}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
